--- a/data/gantt_dates.xlsx
+++ b/data/gantt_dates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abr448\Documents\VU\TSS\TSS2022-23\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abr448\Documents\VU\TSS\TSS2023-24\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B23BB8-728C-4264-917A-F417BED08FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB929A5E-7975-4459-B6D2-ACD5440135E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18780" yWindow="5220" windowWidth="20715" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7335" yWindow="2775" windowWidth="20550" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,67 +39,67 @@
     <t>Importance</t>
   </si>
   <si>
-    <t>2022-12-01</t>
-  </si>
-  <si>
-    <t>2023-01-31</t>
-  </si>
-  <si>
-    <t>2023-03-15</t>
-  </si>
-  <si>
-    <t>2023-03-31</t>
-  </si>
-  <si>
-    <t>2023-01-15</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>2023-04-15</t>
-  </si>
-  <si>
-    <t>2023-01-01</t>
-  </si>
-  <si>
-    <t>2023-01-14</t>
-  </si>
-  <si>
-    <t>2023-03-16</t>
-  </si>
-  <si>
-    <t>2023-03-24</t>
-  </si>
-  <si>
-    <t>2023-04-21</t>
-  </si>
-  <si>
-    <t>2023-04-25</t>
-  </si>
-  <si>
-    <t>2023-01-16</t>
-  </si>
-  <si>
-    <t>2022-12-23</t>
-  </si>
-  <si>
-    <t>2023-04-30</t>
-  </si>
-  <si>
-    <t>2023-05-01</t>
-  </si>
-  <si>
-    <t>2023-05-31</t>
-  </si>
-  <si>
-    <t>2023-06-01</t>
-  </si>
-  <si>
-    <t>2023-06-30</t>
-  </si>
-  <si>
-    <t>2023-06-15</t>
+    <t>2023-12-01</t>
+  </si>
+  <si>
+    <t>2024-03-15</t>
+  </si>
+  <si>
+    <t>2024-01-15</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>2024-03-16</t>
+  </si>
+  <si>
+    <t>2024-03-24</t>
+  </si>
+  <si>
+    <t>2024-04-25</t>
+  </si>
+  <si>
+    <t>2024-01-16</t>
+  </si>
+  <si>
+    <t>2024-05-01</t>
+  </si>
+  <si>
+    <t>2024-06-01</t>
+  </si>
+  <si>
+    <t>2024-01-31</t>
+  </si>
+  <si>
+    <t>2024-03-31</t>
+  </si>
+  <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>2024-04-21</t>
+  </si>
+  <si>
+    <t>2024-06-15</t>
+  </si>
+  <si>
+    <t>2024-04-30</t>
+  </si>
+  <si>
+    <t>2024-05-31</t>
+  </si>
+  <si>
+    <t>2024-06-30</t>
+  </si>
+  <si>
+    <t>2023-12-23</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>0.5</v>
@@ -464,10 +464,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>0.75</v>
@@ -478,10 +478,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -492,10 +492,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -506,10 +506,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -520,10 +520,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -534,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>0.75</v>
@@ -548,10 +548,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -562,10 +562,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -579,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>0.1</v>
@@ -590,10 +590,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>0.25</v>
@@ -604,10 +604,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -618,10 +618,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>0.25</v>
@@ -632,10 +632,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>0.5</v>
@@ -646,7 +646,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>

--- a/data/gantt_dates.xlsx
+++ b/data/gantt_dates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abr448\Documents\VU\TSS\TSS2023-24\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vunl-my.sharepoint.com/personal/l_bremer_vu_nl/Documents/VU/TSS/TSS2024-25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB929A5E-7975-4459-B6D2-ACD5440135E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{EB929A5E-7975-4459-B6D2-ACD5440135E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4CAD2D0-45E5-4F5F-8AFE-8E1CF5983069}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="2775" windowWidth="20550" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="1560" windowWidth="21600" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,67 +39,67 @@
     <t>Importance</t>
   </si>
   <si>
-    <t>2023-12-01</t>
-  </si>
-  <si>
-    <t>2024-03-15</t>
-  </si>
-  <si>
-    <t>2024-01-15</t>
-  </si>
-  <si>
-    <t>2024-04-01</t>
-  </si>
-  <si>
-    <t>2024-01-01</t>
-  </si>
-  <si>
-    <t>2024-03-16</t>
-  </si>
-  <si>
-    <t>2024-03-24</t>
-  </si>
-  <si>
-    <t>2024-04-25</t>
-  </si>
-  <si>
-    <t>2024-01-16</t>
-  </si>
-  <si>
-    <t>2024-05-01</t>
-  </si>
-  <si>
-    <t>2024-06-01</t>
-  </si>
-  <si>
-    <t>2024-01-31</t>
-  </si>
-  <si>
-    <t>2024-03-31</t>
-  </si>
-  <si>
-    <t>2024-04-15</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>2024-04-21</t>
-  </si>
-  <si>
-    <t>2024-06-15</t>
-  </si>
-  <si>
-    <t>2024-04-30</t>
-  </si>
-  <si>
-    <t>2024-05-31</t>
-  </si>
-  <si>
-    <t>2024-06-30</t>
-  </si>
-  <si>
-    <t>2023-12-23</t>
+    <t>2025-01-31</t>
+  </si>
+  <si>
+    <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-01-14</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2024-12-23</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-31</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2024-12-01</t>
+  </si>
+  <si>
+    <t>2025-03-15</t>
+  </si>
+  <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
+    <t>2025-01-01</t>
+  </si>
+  <si>
+    <t>2025-03-16</t>
+  </si>
+  <si>
+    <t>2025-03-24</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>2025-01-16</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>2025-06-01</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D2">
         <v>0.5</v>
@@ -464,10 +464,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D3">
         <v>0.75</v>
@@ -478,10 +478,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -492,10 +492,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -506,10 +506,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -520,10 +520,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -534,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>0.75</v>
@@ -548,10 +548,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -562,10 +562,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -576,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>0.1</v>
@@ -590,10 +590,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>0.25</v>
@@ -604,10 +604,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -618,10 +618,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>0.25</v>
@@ -632,10 +632,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D15">
         <v>0.5</v>
@@ -646,10 +646,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D16">
         <v>1</v>
